--- a/bugReport_OHSOGO.xlsx
+++ b/bugReport_OHSOGO.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\project-SQA-MANUAL\OHSOGO_MANUAL_TESTING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sign_up_bugPage" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Front-Page_bugPage" sheetId="2" r:id="rId5"/>
+    <sheet name="Sign_up_bugPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Front-Page_bugPage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -199,51 +207,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -251,7 +248,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -267,7 +264,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -281,8 +284,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -292,6 +297,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,116 +306,117 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -599,26 +606,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.63"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="23.75"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +675,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -682,28 +697,28 @@
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:26" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -724,34 +739,34 @@
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:26" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -766,40 +781,40 @@
       <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="60.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -808,342 +823,347 @@
       <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.63"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="23.75"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
-    <row r="2" ht="52.5" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
-    <row r="3" ht="55.5" customHeight="1">
+    <row r="3" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
     </row>
-    <row r="4" ht="51.75" customHeight="1">
+    <row r="4" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
-    <row r="5" ht="67.5" customHeight="1">
+    <row r="5" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
     </row>
-    <row r="6" ht="60.75" customHeight="1">
+    <row r="6" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
     </row>
-    <row r="7" ht="69.75" customHeight="1">
+    <row r="7" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bugReport_OHSOGO.xlsx
+++ b/bugReport_OHSOGO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sign_up_bugPage" sheetId="1" r:id="rId1"/>
@@ -618,19 +618,15 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.2">
@@ -675,7 +671,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -855,18 +851,15 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.2">

--- a/bugReport_OHSOGO.xlsx
+++ b/bugReport_OHSOGO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\project-SQA-MANUAL\OHSOGO_MANUAL_TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual-Testing-Projects\MANUAL_TESTING_OHSOGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Sign_up_bugPage" sheetId="1" r:id="rId1"/>
     <sheet name="Front-Page_bugPage" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Defect Id</t>
   </si>
@@ -55,14 +55,6 @@
 4.Click on the "sign up" button</t>
   </si>
   <si>
-    <t>user should be signned up successfully and taken to Home page</t>
-  </si>
-  <si>
-    <t>user did not sign up successfully and Displayed 
-1.below the box - Incorrect input! Only words allowed! 
-2.an alert notice on the page" Incorrect data ! Please resolve all field validation errors."</t>
-  </si>
-  <si>
     <t>major</t>
   </si>
   <si>
@@ -81,12 +73,6 @@
 4.Click on the "sign up" button</t>
   </si>
   <si>
-    <t>user can sign up successfully and taken to the home page</t>
-  </si>
-  <si>
-    <t>user can not sign up successfully and displayed a notification message on the page "Minimum of different classes characters in password is 3. classes of characters : Lower Case, Upper Cse, Digits, Special Charecters.</t>
-  </si>
-  <si>
     <t>df_id_003</t>
   </si>
   <si>
@@ -98,16 +84,6 @@
 3.View text link below the phone number field</t>
   </si>
   <si>
-    <t>user can not sign up successfully and display 
-First Name : required only words
-Last Name : required only words
-Email: invaild Email address
-Password : minimum three class of characters required (Uppercase , lowercase, numeric, symbol etc)</t>
-  </si>
-  <si>
-    <t>user can not sign up successfully and display a notification message on the page "Incorrect data! please resolve all fields validation errors."</t>
-  </si>
-  <si>
     <t>minor</t>
   </si>
   <si>
@@ -133,75 +109,102 @@
     <t>A warning message for search enter with invalid words</t>
   </si>
   <si>
-    <t>1.Click on the searchbar
+    <t>Click on the profile icon</t>
+  </si>
+  <si>
+    <t>Logo should be clickable and open a log in information modal with close button</t>
+  </si>
+  <si>
+    <t>df_id_005</t>
+  </si>
+  <si>
+    <t>df_id_006</t>
+  </si>
+  <si>
+    <t>It should be visiable error message that - keyword is not valid</t>
+  </si>
+  <si>
+    <t>It does not visiable error message that - keyword is not valid</t>
+  </si>
+  <si>
+    <t>After opening profile button it does not have any close button</t>
+  </si>
+  <si>
+    <t>It's clickable and open a log in information modal without close button</t>
+  </si>
+  <si>
+    <t>Size problem between all products in the same section</t>
+  </si>
+  <si>
+    <t>1. Click on the products
+2. Inspect the product size</t>
+  </si>
+  <si>
+    <t>This all of logos size should be equal height, width</t>
+  </si>
+  <si>
+    <t>This all of logos size not equal height, width</t>
+  </si>
+  <si>
+    <t>Directly conect vai a call there is nor option to chose call or chat box in beauty tips section</t>
+  </si>
+  <si>
+    <t>Click on the beauty advice</t>
+  </si>
+  <si>
+    <t>This feature should be open a option conatct with call or chat box modal and messaging with user</t>
+  </si>
+  <si>
+    <t>This feature after click on this directly conect via call</t>
+  </si>
+  <si>
+    <t>Reviews are locked there is no opotion to verify the feedbacks</t>
+  </si>
+  <si>
+    <t>Click on the customer feedbacks</t>
+  </si>
+  <si>
+    <t>This feature should be open with customer review</t>
+  </si>
+  <si>
+    <t>This is not clickable</t>
+  </si>
+  <si>
+    <t>Social icons size problem in the footer section. All measurements should be same for perfect design</t>
+  </si>
+  <si>
+    <t>This all of icons size should be equal height, width</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>1. Click on the searchbar
 2. Enter any invalid letter on the searchbar</t>
   </si>
   <si>
-    <t>it should be visiable error message that - keyword is not valid</t>
-  </si>
-  <si>
-    <t>it does not visiable error message that - keyword is not valid</t>
-  </si>
-  <si>
-    <t>after opening profile button it does not have any close button</t>
-  </si>
-  <si>
-    <t>Click on the profile icon</t>
-  </si>
-  <si>
-    <t>Logo should be clickable and open a log in information modal with close button</t>
-  </si>
-  <si>
-    <t>it's clickable and open a log in information modal without close button</t>
-  </si>
-  <si>
-    <t>size problem between all products in the same section</t>
-  </si>
-  <si>
-    <t>1. Click On the products
-2. inspect the product size</t>
-  </si>
-  <si>
-    <t>this all of logos size should be equal height, width</t>
-  </si>
-  <si>
-    <t>this all of logos size not equal height, width</t>
-  </si>
-  <si>
-    <t>directly conect vai a call there is nor option to chose call or chat box in beauty tips section</t>
-  </si>
-  <si>
-    <t>click on the beauty advice</t>
-  </si>
-  <si>
-    <t>this feature should be open a option conatct with call or chat box modal and messaging with user</t>
-  </si>
-  <si>
-    <t>this feature after click on this directly conect via call</t>
-  </si>
-  <si>
-    <t>df_id_005</t>
-  </si>
-  <si>
-    <t>reviews are locked there is no opotion to verify the feedbacks</t>
-  </si>
-  <si>
-    <t>click on the customer feedbacks</t>
-  </si>
-  <si>
-    <t>this feature should be open with customer review</t>
-  </si>
-  <si>
-    <t>this is not clickable</t>
-  </si>
-  <si>
-    <t>df_id_006</t>
-  </si>
-  <si>
-    <t>social icons size problem in the footer section. all measurements should be same for perfect design</t>
-  </si>
-  <si>
-    <t>this all of icons size should be equal height, width</t>
+    <t>User should be signned up successfully and taken to home page</t>
+  </si>
+  <si>
+    <t>User did not sign up successfully and displayed 
+1.below the box - incorrect input! Only words allowed! 
+2.An alert notice on the page" incorrect data ! Please resolve all field validation errors."</t>
+  </si>
+  <si>
+    <t>User can sign up successfully and taken to the home page</t>
+  </si>
+  <si>
+    <t>User can not sign up successfully and displayed a notification message on the page "minimum of different classes characters in password is 3. Classes of characters : lower case, upper cse, digits, special charecters.</t>
+  </si>
+  <si>
+    <t>User can not sign up successfully and display 
+first name : required only words
+last name : required only words
+email: invaild email address
+password : minimum three class of characters required (uppercase , lowercase, numeric, symbol etc)</t>
+  </si>
+  <si>
+    <t>User can not sign up successfully and display a notification message on the page "incorrect data! Please resolve all fields validation errors."</t>
   </si>
 </sst>
 </file>
@@ -392,11 +395,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,14 +621,16 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -682,16 +687,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -715,25 +720,25 @@
     </row>
     <row r="3" spans="1:26" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -757,25 +762,25 @@
     </row>
     <row r="4" spans="1:26" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -799,25 +804,25 @@
     </row>
     <row r="5" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -851,13 +856,15 @@
   </sheetPr>
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
@@ -909,22 +916,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -948,25 +955,25 @@
     </row>
     <row r="3" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -990,25 +997,25 @@
     </row>
     <row r="4" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -1032,25 +1039,25 @@
     </row>
     <row r="5" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -1074,25 +1081,25 @@
     </row>
     <row r="6" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1116,25 +1123,25 @@
     </row>
     <row r="7" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
